--- a/analyses/data/qPCR_TidyData_LK_20240403.xlsx
+++ b/analyses/data/qPCR_TidyData_LK_20240403.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lexikeene/Documents/Research/diverse_collections/analyses/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lexikeene/Documents/Research/diverse_collections/github/analyses/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2A965C-D1F1-7140-85EF-D4DC2ECA6F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD1CEF0-1F91-D947-B34A-E76E07DB71C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33040" yWindow="5160" windowWidth="31820" windowHeight="21100" xr2:uid="{6A6D888F-90AF-8047-9C65-0DCCAA368B2C}"/>
+    <workbookView xWindow="33040" yWindow="500" windowWidth="31820" windowHeight="21100" xr2:uid="{6A6D888F-90AF-8047-9C65-0DCCAA368B2C}"/>
   </bookViews>
   <sheets>
     <sheet name="qPCR_TidyData_LK_20240403" sheetId="1" r:id="rId1"/>
@@ -3055,7 +3055,7 @@
     <t>500_M_092023_116</t>
   </si>
   <si>
-    <t>Unknown</t>
+    <t>Colorado</t>
   </si>
 </sst>
 </file>
@@ -3487,8 +3487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771D9E4B-5435-C847-862B-CB09F9E119BD}">
   <dimension ref="A1:H2923"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A964" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E986" sqref="E986"/>
+    <sheetView tabSelected="1" topLeftCell="A2472" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2405" sqref="F2405:F2500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
